--- a/config_1.26/act_hhl_ty_config.xlsx
+++ b/config_1.26/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>line|</t>
   </si>
@@ -217,38 +217,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有游戏有几率得灵珠，玩高倍场可得更多灵珠！</t>
-  </si>
-  <si>
-    <t>充值商城中每日首次购买金币，必得宝箱灵珠！</t>
-  </si>
-  <si>
-    <t>坚果大礼包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档电热水袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生酥1斤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档电热水袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生酥1斤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-  </si>
-  <si>
-    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-  </si>
-  <si>
     <r>
       <t>2,</t>
     </r>
@@ -324,6 +292,30 @@
   </si>
   <si>
     <t>108,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有游戏有几率得太阳，玩高倍场可得更多太阳！</t>
+  </si>
+  <si>
+    <t>充值商城中每日首次购买金币，必得宝箱太阳！</t>
+  </si>
+  <si>
+    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得太阳道具，太阳可用于兑换奖励，高倍场可获得更多太阳哦！","3.活动结束后，所有太阳将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得太阳道具，太阳可用于兑换奖励，高倍场可获得更多太阳哦！","3.活动结束后，所有太阳将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <t>太阳取暖器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档暖手宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛围巾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,18 +363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,14 +407,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>52</v>
@@ -825,17 +805,17 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8">
-        <v>1611014400</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1611590399</v>
+      <c r="I2" s="2">
+        <v>1611619200</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1612195199</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -852,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>53</v>
@@ -863,17 +843,17 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8">
-        <v>1611014400</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1611590399</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>55</v>
+      <c r="I3" s="2">
+        <v>1611619200</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1612195199</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +867,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,8 +905,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
@@ -934,8 +914,8 @@
       <c r="D2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
+      <c r="E2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -945,8 +925,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>58</v>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>28</v>
@@ -954,8 +934,8 @@
       <c r="D3" s="2">
         <v>8000</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -965,8 +945,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>59</v>
+      <c r="B4" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
@@ -974,8 +954,8 @@
       <c r="D4" s="2">
         <v>5000</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
+      <c r="E4" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1079,7 +1059,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,8 +1097,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>39</v>
@@ -1126,8 +1106,8 @@
       <c r="D2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
+      <c r="E2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1137,8 +1117,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>60</v>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>28</v>
@@ -1146,8 +1126,8 @@
       <c r="D3" s="2">
         <v>8000</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1157,8 +1137,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
+      <c r="B4" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
@@ -1166,8 +1146,8 @@
       <c r="D4" s="2">
         <v>5000</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
+      <c r="E4" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1302,8 +1282,8 @@
       <c r="A2" s="2">
         <v>1000217</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>64</v>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="1">
         <v>45</v>
@@ -1313,8 +1293,8 @@
       <c r="A3" s="2">
         <v>1000218</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>65</v>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>90</v>
@@ -1324,8 +1304,8 @@
       <c r="A4" s="2">
         <v>1000219</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>66</v>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1335,8 +1315,8 @@
       <c r="A5" s="2">
         <v>1000220</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>290</v>
@@ -1346,8 +1326,8 @@
       <c r="A6" s="2">
         <v>1000221</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>68</v>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>590</v>
@@ -1357,8 +1337,8 @@
       <c r="A7" s="2">
         <v>1000222</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>69</v>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>1490</v>
@@ -1368,8 +1348,8 @@
       <c r="A8" s="2">
         <v>1000223</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>70</v>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="1">
         <v>2990</v>
@@ -1379,8 +1359,8 @@
       <c r="A9" s="2">
         <v>1000224</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>71</v>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>7490</v>
@@ -1396,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1426,8 +1406,8 @@
       <c r="A2" s="2">
         <v>1000217</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>72</v>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="1">
         <v>45</v>
@@ -1437,8 +1417,8 @@
       <c r="A3" s="2">
         <v>1000218</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>65</v>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>90</v>
@@ -1448,8 +1428,8 @@
       <c r="A4" s="2">
         <v>1000219</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>73</v>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1459,8 +1439,8 @@
       <c r="A5" s="2">
         <v>1000220</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>290</v>
@@ -1470,8 +1450,8 @@
       <c r="A6" s="2">
         <v>1000221</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>74</v>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>590</v>
@@ -1481,8 +1461,8 @@
       <c r="A7" s="2">
         <v>1000222</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>75</v>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>1490</v>
@@ -1492,8 +1472,8 @@
       <c r="A8" s="2">
         <v>1000223</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>76</v>
+      <c r="B8" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <v>2990</v>
@@ -1503,8 +1483,8 @@
       <c r="A9" s="2">
         <v>1000224</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>71</v>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>7490</v>
@@ -1544,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1557,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1579,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1589,9 +1569,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,17 +1590,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1626,22 +1620,8 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1653,13 +1633,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1671,7 +1651,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.26/act_hhl_ty_config.xlsx
+++ b/config_1.26/act_hhl_ty_config.xlsx
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>cpl_notcjj</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,</t>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
@@ -243,6 +240,10 @@
   </si>
   <si>
     <t>act_001_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +691,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -749,25 +750,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="6">
         <v>1611619200</v>
@@ -781,28 +782,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="J3" s="6">
         <v>1611619200</v>
@@ -838,22 +839,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -861,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="11">
         <v>15000</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -881,16 +882,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11">
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
@@ -901,16 +902,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11">
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -921,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="11">
         <v>24000</v>
@@ -939,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="11">
         <v>12000</v>
@@ -957,10 +958,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>6000</v>
@@ -975,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="11">
         <v>2400</v>
@@ -993,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11">
         <v>1200</v>
@@ -1011,16 +1012,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="15">
         <v>15000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -1031,16 +1032,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15">
         <v>8000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1051,16 +1052,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="15">
         <v>5000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -1071,10 +1072,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="15">
         <v>24000</v>
@@ -1089,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="15">
         <v>12000</v>
@@ -1107,10 +1108,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="15">
         <v>6000</v>
@@ -1125,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="15">
         <v>2400</v>
@@ -1143,10 +1144,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
@@ -1182,19 +1183,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1205,7 +1206,7 @@
         <v>1000217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1219,7 +1220,7 @@
         <v>1000218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1233,7 +1234,7 @@
         <v>1000219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1247,7 +1248,7 @@
         <v>1000220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1261,7 +1262,7 @@
         <v>1000221</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1275,7 +1276,7 @@
         <v>1000222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1289,7 +1290,7 @@
         <v>1000223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1303,7 +1304,7 @@
         <v>1000224</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1368,6 +1369,37 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1378,37 +1410,6 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
@@ -1416,13 +1417,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1434,13 +1435,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.26/act_hhl_ty_config.xlsx
+++ b/config_1.26/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>line|</t>
   </si>
@@ -95,21 +95,12 @@
     <t>太阳取暖器</t>
   </si>
   <si>
-    <t>dhhl_swjl_1</t>
-  </si>
-  <si>
     <t>高档暖手宝</t>
   </si>
   <si>
-    <t>dhhl_swjl_2</t>
-  </si>
-  <si>
     <t>羊毛围巾</t>
   </si>
   <si>
-    <t>dhhl_swjl_3</t>
-  </si>
-  <si>
     <t>2000万金币</t>
   </si>
   <si>
@@ -119,15 +110,9 @@
     <t>高级核弹</t>
   </si>
   <si>
-    <t>dhhl_icon_gjhd</t>
-  </si>
-  <si>
     <t>中级核弹</t>
   </si>
   <si>
-    <t>dhhl_icon_zjhd</t>
-  </si>
-  <si>
     <t>200万金币</t>
   </si>
   <si>
@@ -137,33 +122,6 @@
     <t>初级核弹</t>
   </si>
   <si>
-    <t>dhhl_icon_cjhd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hhl_swjl_1</t>
-    </r>
-  </si>
-  <si>
     <t>1000万金币</t>
   </si>
   <si>
@@ -173,13 +131,7 @@
     <t>小金锤</t>
   </si>
   <si>
-    <t>dhhl_icon_jc</t>
-  </si>
-  <si>
     <t>小银锤</t>
-  </si>
-  <si>
-    <t>dhhl_icon_yc</t>
   </si>
   <si>
     <t>ID</t>
@@ -260,6 +212,38 @@
   <si>
     <t>9,10,11,12,13,14,15,16</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_1</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <t>icon_gjhd</t>
+  </si>
+  <si>
+    <t>icon_zjhd</t>
+  </si>
+  <si>
+    <t>icon_cjhd</t>
+  </si>
+  <si>
+    <t>icon_jc</t>
+  </si>
+  <si>
+    <t>icon_yc</t>
   </si>
 </sst>
 </file>
@@ -343,7 +327,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +374,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -762,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -797,13 +787,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -831,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,8 +863,8 @@
       <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
+      <c r="C2" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="11">
         <v>15000</v>
@@ -891,16 +881,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D3" s="11">
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
@@ -911,16 +901,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D4" s="11">
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -931,10 +921,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11">
         <v>24000</v>
@@ -949,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D6" s="11">
         <v>12000</v>
@@ -967,10 +957,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11">
         <v>6000</v>
@@ -985,10 +975,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11">
         <v>2400</v>
@@ -1003,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11">
         <v>1200</v>
@@ -1024,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15">
         <v>15000</v>
@@ -1041,16 +1031,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15">
         <v>8000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1061,16 +1051,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D12" s="15">
         <v>5000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -1081,10 +1071,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="15">
         <v>24000</v>
@@ -1099,10 +1089,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" s="15">
         <v>12000</v>
@@ -1117,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D15" s="15">
         <v>6000</v>
@@ -1135,10 +1125,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" s="15">
         <v>2400</v>
@@ -1153,10 +1143,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
@@ -1192,19 +1182,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1215,7 +1205,7 @@
         <v>1000217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1229,7 +1219,7 @@
         <v>1000218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1243,7 +1233,7 @@
         <v>1000219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1257,7 +1247,7 @@
         <v>1000220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1271,7 +1261,7 @@
         <v>1000221</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1285,7 +1275,7 @@
         <v>1000222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1299,7 +1289,7 @@
         <v>1000223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1313,7 +1303,7 @@
         <v>1000224</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1368,16 +1358,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1387,7 +1387,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1398,7 +1398,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1409,48 +1409,38 @@
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_1.26/act_hhl_ty_config.xlsx
+++ b/config_1.26/act_hhl_ty_config.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
-    <sheet name="Info" sheetId="1" r:id="rId2"/>
-    <sheet name="config" sheetId="2" r:id="rId3"/>
+    <sheet name="config" sheetId="1" r:id="rId2"/>
+    <sheet name="shop_config" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,12 +29,6 @@
     <t>condiy_key|权限</t>
   </si>
   <si>
-    <t>shop_config|商场加赠配置</t>
-  </si>
-  <si>
-    <t>config|兑换信息</t>
-  </si>
-  <si>
     <t>change_type|兑换行号</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>1,2,3,4,5,6,7,</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>cpl_cjj</t>
-  </si>
-  <si>
-    <t>8,9,10,11,12,13</t>
   </si>
   <si>
     <t>"game_MiniGame",</t>
@@ -255,6 +243,22 @@
   </si>
   <si>
     <t>act_001_hhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_config|商场加赠配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>config|兑换信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -695,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,31 +724,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -752,28 +756,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="6">
         <v>1611619200</v>
@@ -787,28 +791,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6">
         <v>1611619200</v>
@@ -827,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,22 +848,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -867,16 +871,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="11">
         <v>15000</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -887,16 +891,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11">
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
@@ -907,16 +911,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11">
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -927,10 +931,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11">
         <v>24000</v>
@@ -945,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11">
         <v>12000</v>
@@ -963,10 +967,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11">
         <v>6000</v>
@@ -981,10 +985,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="11">
         <v>2400</v>
@@ -999,10 +1003,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11">
         <v>1200</v>
@@ -1017,16 +1021,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="15">
         <v>15000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -1037,16 +1041,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="15">
         <v>8000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1057,16 +1061,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="15">
         <v>5000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -1077,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="15">
         <v>24000</v>
@@ -1095,10 +1099,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="15">
         <v>12000</v>
@@ -1113,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="15">
         <v>6000</v>
@@ -1131,10 +1135,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="15">
         <v>2400</v>
@@ -1149,10 +1153,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
@@ -1175,7 +1179,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D17"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1188,19 +1192,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1211,7 +1215,7 @@
         <v>1000217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1225,7 +1229,7 @@
         <v>1000218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1239,7 +1243,7 @@
         <v>1000219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1253,7 +1257,7 @@
         <v>1000220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1267,7 +1271,7 @@
         <v>1000221</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1281,7 +1285,7 @@
         <v>1000222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1295,7 +1299,7 @@
         <v>1000223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1309,7 +1313,7 @@
         <v>1000224</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1370,24 +1374,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,17 +1399,24 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1422,13 +1426,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1440,13 +1444,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.26/act_hhl_ty_config.xlsx
+++ b/config_1.26/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -194,10 +194,6 @@
     <t>110,10045</t>
   </si>
   <si>
-    <t>act_001_hhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_config|商场加赠配置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -244,6 +240,10 @@
   </si>
   <si>
     <t>icon_yc</t>
+  </si>
+  <si>
+    <t>act_001_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -752,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -787,13 +787,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="11">
         <v>15000</v>
@@ -884,7 +884,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11">
         <v>8000</v>
@@ -904,7 +904,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="11">
         <v>5000</v>
@@ -942,7 +942,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11">
         <v>12000</v>
@@ -960,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11">
         <v>6000</v>
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11">
         <v>1200</v>
@@ -1014,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15">
         <v>15000</v>
@@ -1034,7 +1034,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="15">
         <v>8000</v>
@@ -1054,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="15">
         <v>5000</v>
@@ -1074,7 +1074,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="15">
         <v>24000</v>
@@ -1110,7 +1110,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="15">
         <v>6000</v>
@@ -1146,7 +1146,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
@@ -1368,13 +1368,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,25 +1400,13 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1416,13 +1416,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1434,13 +1434,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>